--- a/Python/lambor_Inputbox_HYCX-JJSX.xlsx
+++ b/Python/lambor_Inputbox_HYCX-JJSX.xlsx
@@ -56,13 +56,14 @@
     <t>//*[@id="myModal2"]/form/div/div[2]/div[7]/div[1]/div/input</t>
   </si>
   <si>
-    <t>//*[@id="myModal2"]/form/div/div[2]/div[7]/div[1]/a/span</t>
-  </si>
-  <si>
     <t>//*[@id="myModal2"]/form/div/div[2]/div[8]/div[1]/div/input</t>
   </si>
   <si>
     <t>//*[@id="myModal2"]/form/div/div[2]/div[8]/div[1]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="myModal2"]/form/div/div[2]/div[7]/div[1]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -393,7 +394,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -448,15 +449,15 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
